--- a/doc/04_DB定義書_持ちつ持たれつ.xlsx
+++ b/doc/04_DB定義書_持ちつ持たれつ.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\モチベーションアップ名刺管理アプリForza\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DOJO6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{332F73A4-5348-4E51-8627-D66E0B7E7317}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5336F26E-74A7-4A50-9A65-36AA21A6E58A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="88">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -493,6 +493,17 @@
   </si>
   <si>
     <t>topメモ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>優先度</t>
+    <rPh sb="0" eb="3">
+      <t>ユウセンド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>priority</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1945,8 +1956,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6823F837-2093-40B0-9E8E-86134CE386ED}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17:J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2261,7 +2272,7 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="L16" t="e">
-        <f>#REF!&amp;" "&amp;D17&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <f>#REF!&amp;" "&amp;D18&amp;" "&amp;IF(E18&lt;&gt;"","("&amp;E18&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
         <v>#REF!</v>
       </c>
     </row>
@@ -2269,25 +2280,25 @@
       <c r="A17" s="3">
         <v>8</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E17" s="3"/>
+      <c r="B17" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="9">
+        <v>2</v>
+      </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
-      <c r="J17" s="3" t="s">
-        <v>82</v>
-      </c>
+      <c r="J17" s="3"/>
       <c r="L17" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C18&lt;&gt;"",",","")</f>
+        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
         <v>#REF!</v>
       </c>
     </row>
@@ -2295,18 +2306,26 @@
       <c r="A18" s="3">
         <v>9</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
+      <c r="B18" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="L18" t="str">
-        <f t="shared" ref="L15:L29" si="0">C18&amp;" "&amp;D18&amp;" "&amp;IF(E18&lt;&gt;"","("&amp;E18&amp;")","")&amp;IF(C19&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+      <c r="J18" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="L18" t="e">
+        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C19&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.15">
@@ -2323,7 +2342,7 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="L19" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="L18:L29" si="0">C19&amp;" "&amp;D19&amp;" "&amp;IF(E19&lt;&gt;"","("&amp;E19&amp;")","")&amp;IF(C20&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -2844,7 +2863,7 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="L18" t="str">
-        <f>C14&amp;" "&amp;D18&amp;" "&amp;IF(E18&lt;&gt;"","("&amp;E18&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <f t="shared" ref="L18:L29" si="0">C14&amp;" "&amp;D18&amp;" "&amp;IF(E18&lt;&gt;"","("&amp;E18&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -2862,7 +2881,7 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="L19" t="str">
-        <f>C15&amp;" "&amp;D19&amp;" "&amp;IF(E19&lt;&gt;"","("&amp;E19&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -2880,7 +2899,7 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="L20" t="str">
-        <f>C16&amp;" "&amp;D20&amp;" "&amp;IF(E20&lt;&gt;"","("&amp;E20&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -2898,7 +2917,7 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="L21" t="str">
-        <f>C17&amp;" "&amp;D21&amp;" "&amp;IF(E21&lt;&gt;"","("&amp;E21&amp;")","")&amp;IF(C18&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -2916,7 +2935,7 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="L22" t="str">
-        <f>C18&amp;" "&amp;D22&amp;" "&amp;IF(E22&lt;&gt;"","("&amp;E22&amp;")","")&amp;IF(C19&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -2934,7 +2953,7 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="L23" t="str">
-        <f>C19&amp;" "&amp;D23&amp;" "&amp;IF(E23&lt;&gt;"","("&amp;E23&amp;")","")&amp;IF(C20&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -2952,7 +2971,7 @@
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="L24" t="str">
-        <f>C20&amp;" "&amp;D24&amp;" "&amp;IF(E24&lt;&gt;"","("&amp;E24&amp;")","")&amp;IF(C21&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -2970,7 +2989,7 @@
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="L25" t="str">
-        <f>C21&amp;" "&amp;D25&amp;" "&amp;IF(E25&lt;&gt;"","("&amp;E25&amp;")","")&amp;IF(C22&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -2988,7 +3007,7 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="L26" t="str">
-        <f>C22&amp;" "&amp;D26&amp;" "&amp;IF(E26&lt;&gt;"","("&amp;E26&amp;")","")&amp;IF(C23&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -3006,7 +3025,7 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="L27" t="str">
-        <f>C23&amp;" "&amp;D27&amp;" "&amp;IF(E27&lt;&gt;"","("&amp;E27&amp;")","")&amp;IF(C24&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -3024,7 +3043,7 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="L28" t="str">
-        <f>C24&amp;" "&amp;D28&amp;" "&amp;IF(E28&lt;&gt;"","("&amp;E28&amp;")","")&amp;IF(C25&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -3042,7 +3061,7 @@
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="L29" t="str">
-        <f>C25&amp;" "&amp;D29&amp;" "&amp;IF(E29&lt;&gt;"","("&amp;E29&amp;")","")&amp;IF(C26&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -3429,7 +3448,7 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="L20" t="str">
-        <f>C15&amp;" "&amp;D20&amp;" "&amp;IF(E20&lt;&gt;"","("&amp;E20&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <f t="shared" ref="L20:L29" si="0">C15&amp;" "&amp;D20&amp;" "&amp;IF(E20&lt;&gt;"","("&amp;E20&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -3447,7 +3466,7 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="L21" t="str">
-        <f>C16&amp;" "&amp;D21&amp;" "&amp;IF(E21&lt;&gt;"","("&amp;E21&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -3465,7 +3484,7 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="L22" t="str">
-        <f>C17&amp;" "&amp;D22&amp;" "&amp;IF(E22&lt;&gt;"","("&amp;E22&amp;")","")&amp;IF(C18&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -3483,7 +3502,7 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="L23" t="str">
-        <f>C18&amp;" "&amp;D23&amp;" "&amp;IF(E23&lt;&gt;"","("&amp;E23&amp;")","")&amp;IF(C19&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -3501,7 +3520,7 @@
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="L24" t="str">
-        <f>C19&amp;" "&amp;D24&amp;" "&amp;IF(E24&lt;&gt;"","("&amp;E24&amp;")","")&amp;IF(C20&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -3517,7 +3536,7 @@
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="L25" t="str">
-        <f>C20&amp;" "&amp;D25&amp;" "&amp;IF(E25&lt;&gt;"","("&amp;E25&amp;")","")&amp;IF(C21&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -3533,7 +3552,7 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="L26" t="str">
-        <f>C21&amp;" "&amp;D26&amp;" "&amp;IF(E26&lt;&gt;"","("&amp;E26&amp;")","")&amp;IF(C22&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -3549,7 +3568,7 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="L27" t="str">
-        <f>C22&amp;" "&amp;D27&amp;" "&amp;IF(E27&lt;&gt;"","("&amp;E27&amp;")","")&amp;IF(C23&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -3565,7 +3584,7 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="L28" t="str">
-        <f>C23&amp;" "&amp;D28&amp;" "&amp;IF(E28&lt;&gt;"","("&amp;E28&amp;")","")&amp;IF(C24&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -3581,7 +3600,7 @@
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="L29" t="str">
-        <f>C24&amp;" "&amp;D29&amp;" "&amp;IF(E29&lt;&gt;"","("&amp;E29&amp;")","")&amp;IF(C25&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -3911,7 +3930,7 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="L18" t="str">
-        <f>C13&amp;" "&amp;D18&amp;" "&amp;IF(E18&lt;&gt;"","("&amp;E18&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <f t="shared" ref="L18:L29" si="0">C13&amp;" "&amp;D18&amp;" "&amp;IF(E18&lt;&gt;"","("&amp;E18&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -3929,7 +3948,7 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="L19" t="str">
-        <f>C14&amp;" "&amp;D19&amp;" "&amp;IF(E19&lt;&gt;"","("&amp;E19&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -3947,7 +3966,7 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="L20" t="str">
-        <f>C15&amp;" "&amp;D20&amp;" "&amp;IF(E20&lt;&gt;"","("&amp;E20&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -3965,7 +3984,7 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="L21" t="str">
-        <f>C16&amp;" "&amp;D21&amp;" "&amp;IF(E21&lt;&gt;"","("&amp;E21&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -3983,7 +4002,7 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="L22" t="str">
-        <f>C17&amp;" "&amp;D22&amp;" "&amp;IF(E22&lt;&gt;"","("&amp;E22&amp;")","")&amp;IF(C18&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -4001,7 +4020,7 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="L23" t="str">
-        <f>C18&amp;" "&amp;D23&amp;" "&amp;IF(E23&lt;&gt;"","("&amp;E23&amp;")","")&amp;IF(C19&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -4019,7 +4038,7 @@
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="L24" t="str">
-        <f>C19&amp;" "&amp;D24&amp;" "&amp;IF(E24&lt;&gt;"","("&amp;E24&amp;")","")&amp;IF(C20&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -4035,7 +4054,7 @@
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="L25" t="str">
-        <f>C20&amp;" "&amp;D25&amp;" "&amp;IF(E25&lt;&gt;"","("&amp;E25&amp;")","")&amp;IF(C21&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -4051,7 +4070,7 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="L26" t="str">
-        <f>C21&amp;" "&amp;D26&amp;" "&amp;IF(E26&lt;&gt;"","("&amp;E26&amp;")","")&amp;IF(C22&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -4067,7 +4086,7 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="L27" t="str">
-        <f>C22&amp;" "&amp;D27&amp;" "&amp;IF(E27&lt;&gt;"","("&amp;E27&amp;")","")&amp;IF(C23&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -4083,7 +4102,7 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="L28" t="str">
-        <f>C23&amp;" "&amp;D28&amp;" "&amp;IF(E28&lt;&gt;"","("&amp;E28&amp;")","")&amp;IF(C24&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -4099,7 +4118,7 @@
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="L29" t="str">
-        <f>C24&amp;" "&amp;D29&amp;" "&amp;IF(E29&lt;&gt;"","("&amp;E29&amp;")","")&amp;IF(C25&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -4430,7 +4449,7 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="L18" t="str">
-        <f>C13&amp;" "&amp;D18&amp;" "&amp;IF(E18&lt;&gt;"","("&amp;E18&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <f t="shared" ref="L18:L29" si="0">C13&amp;" "&amp;D18&amp;" "&amp;IF(E18&lt;&gt;"","("&amp;E18&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -4448,7 +4467,7 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="L19" t="str">
-        <f>C14&amp;" "&amp;D19&amp;" "&amp;IF(E19&lt;&gt;"","("&amp;E19&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -4466,7 +4485,7 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="L20" t="str">
-        <f>C15&amp;" "&amp;D20&amp;" "&amp;IF(E20&lt;&gt;"","("&amp;E20&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -4484,7 +4503,7 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="L21" t="str">
-        <f>C16&amp;" "&amp;D21&amp;" "&amp;IF(E21&lt;&gt;"","("&amp;E21&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -4502,7 +4521,7 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="L22" t="str">
-        <f>C17&amp;" "&amp;D22&amp;" "&amp;IF(E22&lt;&gt;"","("&amp;E22&amp;")","")&amp;IF(C18&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -4520,7 +4539,7 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="L23" t="str">
-        <f>C18&amp;" "&amp;D23&amp;" "&amp;IF(E23&lt;&gt;"","("&amp;E23&amp;")","")&amp;IF(C19&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -4538,7 +4557,7 @@
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="L24" t="str">
-        <f>C19&amp;" "&amp;D24&amp;" "&amp;IF(E24&lt;&gt;"","("&amp;E24&amp;")","")&amp;IF(C20&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -4554,7 +4573,7 @@
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="L25" t="str">
-        <f>C20&amp;" "&amp;D25&amp;" "&amp;IF(E25&lt;&gt;"","("&amp;E25&amp;")","")&amp;IF(C21&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -4570,7 +4589,7 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="L26" t="str">
-        <f>C21&amp;" "&amp;D26&amp;" "&amp;IF(E26&lt;&gt;"","("&amp;E26&amp;")","")&amp;IF(C22&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -4586,7 +4605,7 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="L27" t="str">
-        <f>C22&amp;" "&amp;D27&amp;" "&amp;IF(E27&lt;&gt;"","("&amp;E27&amp;")","")&amp;IF(C23&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -4602,7 +4621,7 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="L28" t="str">
-        <f>C23&amp;" "&amp;D28&amp;" "&amp;IF(E28&lt;&gt;"","("&amp;E28&amp;")","")&amp;IF(C24&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -4618,7 +4637,7 @@
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="L29" t="str">
-        <f>C24&amp;" "&amp;D29&amp;" "&amp;IF(E29&lt;&gt;"","("&amp;E29&amp;")","")&amp;IF(C25&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -4972,7 +4991,7 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="L19" t="str">
-        <f>C15&amp;" "&amp;D19&amp;" "&amp;IF(E19&lt;&gt;"","("&amp;E19&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <f t="shared" ref="L19:L29" si="0">C15&amp;" "&amp;D19&amp;" "&amp;IF(E19&lt;&gt;"","("&amp;E19&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -4990,7 +5009,7 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="L20" t="str">
-        <f>C16&amp;" "&amp;D20&amp;" "&amp;IF(E20&lt;&gt;"","("&amp;E20&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -5008,7 +5027,7 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="L21" t="str">
-        <f>C17&amp;" "&amp;D21&amp;" "&amp;IF(E21&lt;&gt;"","("&amp;E21&amp;")","")&amp;IF(C18&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -5026,7 +5045,7 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="L22" t="str">
-        <f>C18&amp;" "&amp;D22&amp;" "&amp;IF(E22&lt;&gt;"","("&amp;E22&amp;")","")&amp;IF(C19&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -5044,7 +5063,7 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="L23" t="str">
-        <f>C19&amp;" "&amp;D23&amp;" "&amp;IF(E23&lt;&gt;"","("&amp;E23&amp;")","")&amp;IF(C20&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -5062,7 +5081,7 @@
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="L24" t="str">
-        <f>C20&amp;" "&amp;D24&amp;" "&amp;IF(E24&lt;&gt;"","("&amp;E24&amp;")","")&amp;IF(C21&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -5080,7 +5099,7 @@
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="L25" t="str">
-        <f>C21&amp;" "&amp;D25&amp;" "&amp;IF(E25&lt;&gt;"","("&amp;E25&amp;")","")&amp;IF(C22&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -5098,7 +5117,7 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="L26" t="str">
-        <f>C22&amp;" "&amp;D26&amp;" "&amp;IF(E26&lt;&gt;"","("&amp;E26&amp;")","")&amp;IF(C23&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -5116,7 +5135,7 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="L27" t="str">
-        <f>C23&amp;" "&amp;D27&amp;" "&amp;IF(E27&lt;&gt;"","("&amp;E27&amp;")","")&amp;IF(C24&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -5134,7 +5153,7 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="L28" t="str">
-        <f>C24&amp;" "&amp;D28&amp;" "&amp;IF(E28&lt;&gt;"","("&amp;E28&amp;")","")&amp;IF(C25&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -5152,7 +5171,7 @@
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="L29" t="str">
-        <f>C25&amp;" "&amp;D29&amp;" "&amp;IF(E29&lt;&gt;"","("&amp;E29&amp;")","")&amp;IF(C26&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -5171,7 +5190,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CB2D968-0FEE-400E-BFF5-8B74048F497F}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
@@ -5471,7 +5490,7 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="L18" t="str">
-        <f>C11&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <f t="shared" ref="L18:L29" si="0">C11&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
         <v xml:space="preserve">top_memo  </v>
       </c>
     </row>
@@ -5489,7 +5508,7 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="L19" t="str">
-        <f>C12&amp;" "&amp;D17&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -5507,7 +5526,7 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="L20" t="str">
-        <f>C13&amp;" "&amp;D18&amp;" "&amp;IF(E18&lt;&gt;"","("&amp;E18&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -5525,7 +5544,7 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="L21" t="str">
-        <f>C14&amp;" "&amp;D19&amp;" "&amp;IF(E19&lt;&gt;"","("&amp;E19&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -5543,7 +5562,7 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="L22" t="str">
-        <f>C15&amp;" "&amp;D20&amp;" "&amp;IF(E20&lt;&gt;"","("&amp;E20&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -5561,7 +5580,7 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="L23" t="str">
-        <f>C16&amp;" "&amp;D21&amp;" "&amp;IF(E21&lt;&gt;"","("&amp;E21&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -5579,7 +5598,7 @@
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="L24" t="str">
-        <f>C17&amp;" "&amp;D22&amp;" "&amp;IF(E22&lt;&gt;"","("&amp;E22&amp;")","")&amp;IF(C18&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -5597,7 +5616,7 @@
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="L25" t="str">
-        <f>C18&amp;" "&amp;D23&amp;" "&amp;IF(E23&lt;&gt;"","("&amp;E23&amp;")","")&amp;IF(C19&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -5615,7 +5634,7 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="L26" t="str">
-        <f>C19&amp;" "&amp;D24&amp;" "&amp;IF(E24&lt;&gt;"","("&amp;E24&amp;")","")&amp;IF(C20&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -5633,7 +5652,7 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="L27" t="str">
-        <f>C20&amp;" "&amp;D25&amp;" "&amp;IF(E25&lt;&gt;"","("&amp;E25&amp;")","")&amp;IF(C21&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -5651,7 +5670,7 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="L28" t="str">
-        <f>C21&amp;" "&amp;D26&amp;" "&amp;IF(E26&lt;&gt;"","("&amp;E26&amp;")","")&amp;IF(C22&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -5669,7 +5688,7 @@
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="L29" t="str">
-        <f>C22&amp;" "&amp;D27&amp;" "&amp;IF(E27&lt;&gt;"","("&amp;E27&amp;")","")&amp;IF(C23&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>

--- a/doc/04_DB定義書_持ちつ持たれつ.xlsx
+++ b/doc/04_DB定義書_持ちつ持たれつ.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DOJO6\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5336F26E-74A7-4A50-9A65-36AA21A6E58A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB218A2C-68EC-4060-8616-A87449E89138}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-4785" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="88">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -480,10 +480,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>TRUE or FORSE</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>TOPメモ</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -504,6 +500,10 @@
   </si>
   <si>
     <t>priority</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TRUE or FALSE</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1201,10 +1201,10 @@
         <v>8</v>
       </c>
       <c r="C15" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>83</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>84</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>23</v>
@@ -1956,8 +1956,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6823F837-2093-40B0-9E8E-86134CE386ED}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:J17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2281,10 +2281,10 @@
         <v>8</v>
       </c>
       <c r="B17" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" s="9" t="s">
         <v>86</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>87</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>29</v>
@@ -2321,7 +2321,7 @@
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="L18" t="e">
         <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C19&lt;&gt;"",",","")</f>
@@ -2342,7 +2342,7 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="L19" t="str">
-        <f t="shared" ref="L18:L29" si="0">C19&amp;" "&amp;D19&amp;" "&amp;IF(E19&lt;&gt;"","("&amp;E19&amp;")","")&amp;IF(C20&lt;&gt;"",",","")</f>
+        <f t="shared" ref="L19:L29" si="0">C19&amp;" "&amp;D19&amp;" "&amp;IF(E19&lt;&gt;"","("&amp;E19&amp;")","")&amp;IF(C20&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -3619,7 +3619,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF91272C-ED6D-4237-BCB2-4FA48400E919}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
@@ -4656,8 +4656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AB00F54-B164-42B9-8B17-84FEBD1332E7}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5188,10 +5188,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CB2D968-0FEE-400E-BFF5-8B74048F497F}">
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5346,25 +5346,26 @@
       <c r="A11" s="3">
         <v>2</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>84</v>
+      <c r="B11" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>44</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E11" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
+      <c r="H11" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="J11" s="3"/>
       <c r="L11" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <f>#REF!&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
         <v>#REF!</v>
       </c>
     </row>
@@ -5372,10 +5373,18 @@
       <c r="A12" s="3">
         <v>3</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
+      <c r="B12" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="3">
+        <v>200</v>
+      </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
@@ -5400,7 +5409,7 @@
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="L13" t="e">
-        <f>#REF!&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
         <v>#REF!</v>
       </c>
     </row>
@@ -5472,7 +5481,7 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="L17" t="e">
-        <f>#REF!&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <f>#REF!&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
         <v>#REF!</v>
       </c>
     </row>
@@ -5489,9 +5498,9 @@
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
-      <c r="L18" t="str">
-        <f t="shared" ref="L18:L29" si="0">C11&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">top_memo  </v>
+      <c r="L18" t="e">
+        <f>#REF!&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.15">
@@ -5508,8 +5517,8 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="L19" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
+        <f t="shared" ref="L19:L30" si="0">C12&amp;" "&amp;D17&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">top_memo  </v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.15">
@@ -5693,7 +5702,25 @@
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="L30" t="s">
+      <c r="A30" s="3">
+        <v>21</v>
+      </c>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="L30" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="L31" t="s">
         <v>20</v>
       </c>
     </row>
